--- a/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/国家资本金.xlsx
+++ b/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/国家资本金.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,369 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>18.7987</v>
-      </c>
-      <c r="C2" t="n">
-        <v>98.05489</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.6588</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>2.9337</v>
-      </c>
-      <c r="G2" t="n">
-        <v>46.44228</v>
-      </c>
-      <c r="H2" t="n">
-        <v>52.00892</v>
-      </c>
-      <c r="I2" t="n">
-        <v>19.78983</v>
-      </c>
-      <c r="J2" t="n">
-        <v>11.761</v>
-      </c>
-      <c r="K2" t="n">
-        <v>16.55276</v>
-      </c>
-      <c r="L2" t="n">
-        <v>981.04628</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.5316</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.90024</v>
-      </c>
-      <c r="O2" t="n">
-        <v>44.6409</v>
-      </c>
-      <c r="P2" t="n">
-        <v>19.46892</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.05953</v>
-      </c>
-      <c r="R2" t="n">
-        <v>9.725680000000001</v>
-      </c>
-      <c r="S2" t="n">
-        <v>9.1607</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>18.42331</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.9906700000000001</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2.97956</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>165.57822</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>82.39122</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>42.56162</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>4.00445</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>4.75867</v>
-      </c>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="n">
-        <v>36.28622</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>2.14959</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>30.18449</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>26.38665</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>60.92716</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>2.48933</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>21.60908</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>37.33404</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>51.28155</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>23.1574</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.0456</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>17.99188</v>
-      </c>
-      <c r="C3" t="n">
-        <v>117.39821</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.78064</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>3.64026</v>
-      </c>
-      <c r="G3" t="n">
-        <v>51.32297</v>
-      </c>
-      <c r="H3" t="n">
-        <v>16.13898</v>
-      </c>
-      <c r="I3" t="n">
-        <v>20.80477</v>
-      </c>
-      <c r="J3" t="n">
-        <v>13.57187</v>
-      </c>
-      <c r="K3" t="n">
-        <v>18.41902</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1011.43051</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.24567</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.80734</v>
-      </c>
-      <c r="O3" t="n">
-        <v>42.44328</v>
-      </c>
-      <c r="P3" t="n">
-        <v>20.69454</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.0669</v>
-      </c>
-      <c r="R3" t="n">
-        <v>15.54823</v>
-      </c>
-      <c r="S3" t="n">
-        <v>8.809010000000001</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>20.22883</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.90169</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.45244</v>
-      </c>
-      <c r="X3" t="n">
-        <v>2.51737</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>196.61746</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>78.33807</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>44.11965</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>3.95838</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>44.7623</v>
-      </c>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="n">
-        <v>38.04186</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>4.81655</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>27.02026</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>20.24823</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>43.18005</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1.16096</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>16.72252</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>28.36175</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>46.23033</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>26.82164</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.2466</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>19.84393</v>
-      </c>
-      <c r="C4" t="n">
-        <v>155.60842</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.31303</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>2.45842</v>
-      </c>
-      <c r="G4" t="n">
-        <v>47.08668</v>
-      </c>
-      <c r="H4" t="n">
-        <v>16.79395</v>
-      </c>
-      <c r="I4" t="n">
-        <v>25.18906</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11.62206</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15.28809</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1021.11634</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.13037</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.00515</v>
-      </c>
-      <c r="O4" t="n">
-        <v>46.10844</v>
-      </c>
-      <c r="P4" t="n">
-        <v>19.18906</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.06951</v>
-      </c>
-      <c r="R4" t="n">
-        <v>16.23038</v>
-      </c>
-      <c r="S4" t="n">
-        <v>8.74592</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>22.66619</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.44486</v>
-      </c>
-      <c r="W4" t="n">
-        <v>3.10577</v>
-      </c>
-      <c r="X4" t="n">
-        <v>2.09657</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>219.42443</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>79.45889</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>37.64501</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>3.86032</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>4.97667</v>
-      </c>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="n">
-        <v>35.68388</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>6.74288</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>27.76287</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>19.41908</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>43.86572</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1.0835</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>18.43241</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>27.63183</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>43.57648</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>22.72252</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.148</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
